--- a/planilha_romaneio.xlsx
+++ b/planilha_romaneio.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\jetta\CSC\ROMANEIO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB49DCD3-2F27-4B47-88C2-FEDF9618CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>ROMANEIO</t>
-  </si>
-  <si>
-    <t>PLACA</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
-    <t>COD MOTORISTA</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>MANIFESTO</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,40 +420,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="A2:G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ROMANEIO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PLACA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CIDADE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>COD MOTORISTA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MANIFESTO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39987</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EFO9188</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MOGI MIRIM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>620326</v>
+      </c>
+      <c r="F2" t="n">
+        <v>148.687</v>
+      </c>
+      <c r="G2" t="n">
+        <v>220477</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39988</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EGP1F79</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MOGI MIRIM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>619886</v>
+      </c>
+      <c r="F3" t="n">
+        <v>146.329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>220479</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>39989</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EMW9H18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F4" t="n">
+        <v>78.542</v>
+      </c>
+      <c r="G4" t="n">
+        <v>220480</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>39990</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EYI3J51</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>620153</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88.923</v>
+      </c>
+      <c r="G5" t="n">
+        <v>220481</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39991</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FVW5D39</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAO JOSE DO RIO PRETO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>436418</v>
+      </c>
+      <c r="F6" t="n">
+        <v>662.5069999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>220482</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39992</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GHG7C42</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VALINHOS</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>436321</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>220483</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39993</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HAN7E35</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LIMEIRA</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>619883</v>
+      </c>
+      <c r="F8" t="n">
+        <v>78.541</v>
+      </c>
+      <c r="G8" t="n">
+        <v>220484</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>39994</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IWJ4B20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hortolândia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>619353</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>220485</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PUT4B21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Paulínia</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>619724</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.717</v>
+      </c>
+      <c r="G10" t="n">
+        <v>220486</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilha_romaneio.xlsx
+++ b/planilha_romaneio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,58 @@
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INFORMAÇÕES FALTANTES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DDY4C74</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ESPIRITO SANTO DO PINHAL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INFORMAÇÕES FALTANTES</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EAR7C31</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AMPARO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/planilha_romaneio.xlsx
+++ b/planilha_romaneio.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Lancamento_Romaneio_Manifesto_CC15_19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>DATA</t>
   </si>
@@ -46,47 +51,47 @@
     <t>APS-4127</t>
   </si>
   <si>
+    <t>SANTA BARBARA DOESTE</t>
+  </si>
+  <si>
     <t>DTE2J80</t>
   </si>
   <si>
+    <t>MOCOCA</t>
+  </si>
+  <si>
     <t>EFO9188</t>
   </si>
   <si>
+    <t>PIRACICABA</t>
+  </si>
+  <si>
     <t>ESU*5084</t>
   </si>
   <si>
+    <t>BROTAS</t>
+  </si>
+  <si>
     <t>ESU5H70</t>
   </si>
   <si>
+    <t>ITATIBA</t>
+  </si>
+  <si>
+    <t>ULTIMO MANIFESTO EM ABERTO INCONSISTENTE</t>
+  </si>
+  <si>
     <t>EZU9C84</t>
   </si>
   <si>
-    <t>SANTA BARBARA DOESTE</t>
-  </si>
-  <si>
-    <t>MOCOCA</t>
-  </si>
-  <si>
-    <t>PIRACICABA</t>
-  </si>
-  <si>
-    <t>BROTAS</t>
-  </si>
-  <si>
-    <t>ITATIBA</t>
-  </si>
-  <si>
     <t>SAO SIMAO</t>
-  </si>
-  <si>
-    <t>ULTIMO MANIFESTO EM ABERTO INCONSISTENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +154,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +206,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -480,19 +500,19 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>66</v>
       </c>
       <c r="F2">
-        <v>58.813</v>
+        <v>58.813000000000002</v>
       </c>
       <c r="G2">
         <v>221278</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -500,10 +520,10 @@
         <v>40166</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>620385</v>
@@ -515,7 +535,7 @@
         <v>221279</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -523,22 +543,22 @@
         <v>40167</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>620326</v>
       </c>
       <c r="F4">
-        <v>98.949</v>
+        <v>98.948999999999998</v>
       </c>
       <c r="G4">
         <v>221280</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -546,10 +566,10 @@
         <v>40168</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>620319</v>
@@ -561,7 +581,7 @@
         <v>221281</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -569,10 +589,10 @@
         <v>40169</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>619860</v>
@@ -581,10 +601,10 @@
         <v>114.831</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -592,19 +612,39 @@
         <v>40170</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>620225</v>
       </c>
       <c r="F7">
-        <v>180.127</v>
+        <v>180.12700000000001</v>
       </c>
       <c r="G7">
         <v>221282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>40171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>58.813000000000002</v>
       </c>
     </row>
   </sheetData>
